--- a/biology/Médecine/Jean-François_Bach/Jean-François_Bach.xlsx
+++ b/biology/Médecine/Jean-François_Bach/Jean-François_Bach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-François Bach, né le 8 juin 1940 à Yvré-l'Évêque (Sarthe) et mort le 12 décembre 2023[1] dans le 12e arrondissement de Paris[2], est un professeur de médecine, biologiste et immunologiste français. Il est secrétaire perpétuel honoraire de l'Académie des sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François Bach, né le 8 juin 1940 à Yvré-l'Évêque (Sarthe) et mort le 12 décembre 2023 dans le 12e arrondissement de Paris, est un professeur de médecine, biologiste et immunologiste français. Il est secrétaire perpétuel honoraire de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le petit fils d'un professeur de pharmacie et d'un ancien directeur de l'École Normale Supérieure de Saint-Cloud et fils d'un professeur de médecine en pédiatrie. Il prépare le concours de Polytechnique dans la classe préparatoire du lycée Louis-le-Grand. Après quelques mois de classe de mathématique spéciale, il décide de changer d'orientation en choisissant la médecine.
-Il est l'élève de Jean Hamburger à l'hôpital Necker. Il est docteur en médecine en 1969, et en sciences en 1970. Sa thèse de sciences donne lieu à trois articles dans Nature[3].
-Correspondant en 1977, il est élu en 1985  membre de l’Académie des sciences, dont il est l'un des deux secrétaires perpétuels de 2006 à 2015[4]. Il est également professeur émérite à l'université Paris-Descartes.
+Il est l'élève de Jean Hamburger à l'hôpital Necker. Il est docteur en médecine en 1969, et en sciences en 1970. Sa thèse de sciences donne lieu à trois articles dans Nature.
+Correspondant en 1977, il est élu en 1985  membre de l’Académie des sciences, dont il est l'un des deux secrétaires perpétuels de 2006 à 2015. Il est également professeur émérite à l'université Paris-Descartes.
 Il est directeur de l'Unité 25 de l'INSERM (Immunopathologie rénale) et du laboratoire 122 du CNRS (Immunologie des allogreffes), tout en dirigeant le centre de l'Association Claude Bernard sur les maladies auto-immunes.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses autres activités et fonctions :
 Membre du conseil d'administration de la Fondation de la Maison de la Chimie
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,10 +606,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie seul ou en collaboration, près de 700 articles ainsi que plusieurs ouvrages scientifiques, dont son Traité d'immunologie (six éditions françaises et traduit en 3 langues)[5]. 
-Ses travaux personnels concernent plus particulièrement l'étude des sous-populations de lymphocytes T en rapport avec l'activité du thymus ; la caractérisation des hormones thymiques et notamment de la thymuline dont il réalise la synthèse ; l'action des immunodépresseurs (cyclosporine, sérums anti-lymphocytaires, des anticorps monoclonaux anti-lymphocytes T)[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie seul ou en collaboration, près de 700 articles ainsi que plusieurs ouvrages scientifiques, dont son Traité d'immunologie (six éditions françaises et traduit en 3 langues). 
+Ses travaux personnels concernent plus particulièrement l'étude des sous-populations de lymphocytes T en rapport avec l'activité du thymus ; la caractérisation des hormones thymiques et notamment de la thymuline dont il réalise la synthèse ; l'action des immunodépresseurs (cyclosporine, sérums anti-lymphocytaires, des anticorps monoclonaux anti-lymphocytes T),.
 Il s'est intéressé aux mécanismes et aux traitements des maladies autoimmunes et plus particulièrement au diabète insulinodépendant. Il a joué un rôle déterminant dans la mise en œuvre de traitements de cette maladie par la cyclosporine puis, plus récemment, par les anticorps monoclonaux anti-CD3. Il a enfin montré que la diminution de la fréquence des infections dans les pays développés expliquait l'augmentation de celle des maladies auto-immunes (théorie hygiéniste).
 </t>
         </is>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,9 +641,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entre autres prix et distinctions[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre autres prix et distinctions :
 Grand Prix de l'Académie des sciences (Prix Jaffé) (1976)
 Prix de la Société européenne d'investigation clinique (1976)
 Médaille d'or de la Société européenne d'allergologie et d'immunologie clinique (1978)
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Bach</t>
+          <t>Jean-François_Bach</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,7 +684,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur
  Commandeur de l'ordre national du Mérite</t>
